--- a/youtube.xlsx
+++ b/youtube.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,44 +446,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M7</t>
+          <t>Cotneus Prod.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>464000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7007</t>
+          <t>218128647</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>vidoakos</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>325</t>
         </is>
       </c>
     </row>
